--- a/nozzle_pressure_manual.xlsx
+++ b/nozzle_pressure_manual.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,75 +8,67 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josh\GitHub\nozzleDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{CC5AF996-0AB4-4239-9EE0-1BCF5F431ED0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8813075D-F639-45F9-ABE3-FF8E9E65D3D5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="nozzle_pressure_manual" sheetId="1" r:id="rId1"/>
+    <sheet name="nozzle_pressure" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Critical Mach, Sub</t>
+  </si>
+  <si>
+    <t>Critical Mach, Sup</t>
+  </si>
+  <si>
+    <t>Critical PR, Sub</t>
+  </si>
+  <si>
+    <t>Critical PR, Sup</t>
+  </si>
+  <si>
+    <t>PR for Shock at Exit</t>
+  </si>
   <si>
     <t>Init Pressure
 (psi)</t>
   </si>
   <si>
-    <t>Throat Pressure
+    <t>Mass Flow Rate
+(g/s)</t>
+  </si>
+  <si>
+    <t>Exit Pressure
 (psi)</t>
   </si>
   <si>
-    <t>Exit Pressure
-(sub, psi)</t>
+    <t>Exit Velocity
+(m/s)</t>
   </si>
   <si>
-    <t>Exit Pressure
-(super, psi)</t>
+    <t>Thrust
+(N)</t>
   </si>
   <si>
-    <t>Pressure Ratio
-(sub)</t>
+    <t>Pressure
+Ratio</t>
   </si>
   <si>
-    <t>Pressure Ratio
-(super)</t>
-  </si>
-  <si>
-    <t>Exit Mach Number
-(sub)</t>
-  </si>
-  <si>
-    <t>Exit Mach Number
-(super)</t>
-  </si>
-  <si>
-    <t>Total Pressure
-(psi)</t>
-  </si>
-  <si>
-    <t>k</t>
-  </si>
-  <si>
-    <t>FULLY SUPERSONIC
-(ISENTROPIC)</t>
-  </si>
-  <si>
-    <t>SHOCK
-(NON-ISENTROPIC)</t>
-  </si>
-  <si>
-    <t>FULLY SUBSONIC
-(ISENTROPIC)</t>
+    <t>Exit Mach
+Number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -220,7 +212,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -403,6 +395,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,19 +577,18 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -934,689 +943,824 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" customWidth="1"/>
+    <col min="9" max="10" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="J1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="K1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="L1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="5">
+      <c r="A2">
+        <v>14.7</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>14.700511690000001</v>
+      </c>
+      <c r="D2">
+        <v>1.000034809</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.66796710199999998</v>
+      </c>
+      <c r="J2" s="6">
+        <v>1.3997281150000001</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0.75678723000000003</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0.58631992499999996</v>
+      </c>
+      <c r="M2" s="6">
+        <v>0.32894293699999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>16.424137930000001</v>
+      </c>
+      <c r="B3">
+        <v>1.6699904000000002E-2</v>
+      </c>
+      <c r="C3">
+        <v>14.700511690000001</v>
+      </c>
+      <c r="D3">
+        <v>0.89505529900000003</v>
+      </c>
+      <c r="E3">
+        <v>0.41741552900000001</v>
+      </c>
+      <c r="F3">
+        <v>108.2513271</v>
+      </c>
+      <c r="G3">
+        <v>1.7940549999999999E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>18.148275859999998</v>
+      </c>
+      <c r="B4">
+        <v>2.3410190000000001E-2</v>
+      </c>
+      <c r="C4">
+        <v>14.700511690000001</v>
+      </c>
+      <c r="D4">
+        <v>0.81002249500000001</v>
+      </c>
+      <c r="E4">
+        <v>0.57862823900000004</v>
+      </c>
+      <c r="F4">
+        <v>148.38988560000001</v>
+      </c>
+      <c r="G4">
+        <v>3.4474480000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>19.424893950000001</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1">
+        <v>14.700511690000001</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.75678723000000003</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.66796710199999998</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>19.87241379</v>
+      </c>
+      <c r="B6">
+        <v>2.7859634000000001E-2</v>
+      </c>
+      <c r="C6">
+        <v>14.700511690000001</v>
+      </c>
+      <c r="D6">
+        <v>0.73974464500000003</v>
+      </c>
+      <c r="E6">
+        <v>0.68247301100000002</v>
+      </c>
+      <c r="F6">
+        <v>173.46247769999999</v>
+      </c>
+      <c r="G6">
+        <v>4.7958920000000004E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>21.596551720000001</v>
+      </c>
+      <c r="B7">
+        <v>3.0276746E-2</v>
+      </c>
+      <c r="C7">
+        <v>14.700511690000001</v>
+      </c>
+      <c r="D7">
+        <v>0.68068791200000001</v>
+      </c>
+      <c r="E7">
+        <v>0.73777254400000003</v>
+      </c>
+      <c r="F7">
+        <v>186.52874510000001</v>
+      </c>
+      <c r="G7">
+        <v>5.6045840000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>23.320689659999999</v>
+      </c>
+      <c r="B8">
+        <v>3.2693857999999999E-2</v>
+      </c>
+      <c r="C8">
+        <v>14.700511690000001</v>
+      </c>
+      <c r="D8">
+        <v>0.63036350600000002</v>
+      </c>
+      <c r="E8">
+        <v>0.79226005399999999</v>
+      </c>
+      <c r="F8">
+        <v>199.19541280000001</v>
+      </c>
+      <c r="G8">
+        <v>6.4629969999999998E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>25.044827590000001</v>
+      </c>
+      <c r="B9">
+        <v>3.5110969999999998E-2</v>
+      </c>
+      <c r="C9">
+        <v>14.700511690000001</v>
+      </c>
+      <c r="D9">
+        <v>0.58696797300000003</v>
+      </c>
+      <c r="E9">
+        <v>0.84592151400000004</v>
+      </c>
+      <c r="F9">
+        <v>211.4595477</v>
+      </c>
+      <c r="G9">
+        <v>7.3681520000000002E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>25.072509159999999</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3">
+        <v>14.700511690000001</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.58631992499999996</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>26.768965519999998</v>
+      </c>
+      <c r="B11">
+        <v>3.7528081999999997E-2</v>
+      </c>
+      <c r="C11">
+        <v>8.8057686480000008</v>
+      </c>
+      <c r="D11">
+        <v>0.32895438700000001</v>
+      </c>
+      <c r="E11">
+        <v>1.3997281150000001</v>
+      </c>
+      <c r="F11">
+        <v>324.47094049999998</v>
+      </c>
+      <c r="G11">
+        <v>8.8566029999999994E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>28.49310345</v>
+      </c>
+      <c r="B12">
+        <v>3.9945195000000003E-2</v>
+      </c>
+      <c r="C12">
+        <v>9.3729313849999993</v>
+      </c>
+      <c r="D12">
+        <v>0.32895438700000001</v>
+      </c>
+      <c r="E12">
+        <v>1.3997281150000001</v>
+      </c>
+      <c r="F12">
+        <v>324.47094049999998</v>
+      </c>
+      <c r="G12">
+        <v>9.9454790000000001E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>30.217241380000001</v>
+      </c>
+      <c r="B13">
+        <v>4.2362307000000002E-2</v>
+      </c>
+      <c r="C13">
+        <v>9.9400941219999996</v>
+      </c>
+      <c r="D13">
+        <v>0.32895438700000001</v>
+      </c>
+      <c r="E13">
+        <v>1.3997281150000001</v>
+      </c>
+      <c r="F13">
+        <v>324.47094049999998</v>
+      </c>
+      <c r="G13">
+        <v>1.1034354999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>31.941379309999999</v>
+      </c>
+      <c r="B14">
+        <v>4.4779419000000001E-2</v>
+      </c>
+      <c r="C14">
+        <v>10.50725686</v>
+      </c>
+      <c r="D14">
+        <v>0.32895438700000001</v>
+      </c>
+      <c r="E14">
+        <v>1.3997281150000001</v>
+      </c>
+      <c r="F14">
+        <v>324.47094049999998</v>
+      </c>
+      <c r="G14">
+        <v>1.212323E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>33.66551724</v>
+      </c>
+      <c r="B15">
+        <v>4.7196531E-2</v>
+      </c>
+      <c r="C15">
+        <v>11.07441959</v>
+      </c>
+      <c r="D15">
+        <v>0.32895438700000001</v>
+      </c>
+      <c r="E15">
+        <v>1.3997281150000001</v>
+      </c>
+      <c r="F15">
+        <v>324.47094049999998</v>
+      </c>
+      <c r="G15">
+        <v>1.3212106E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>35.389655169999997</v>
+      </c>
+      <c r="B16">
+        <v>4.9613642999999999E-2</v>
+      </c>
+      <c r="C16">
+        <v>11.64158233</v>
+      </c>
+      <c r="D16">
+        <v>0.32895438700000001</v>
+      </c>
+      <c r="E16">
+        <v>1.3997281150000001</v>
+      </c>
+      <c r="F16">
+        <v>324.47094049999998</v>
+      </c>
+      <c r="G16">
+        <v>1.4300982E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>37.113793100000002</v>
+      </c>
+      <c r="B17">
+        <v>5.2030754999999998E-2</v>
+      </c>
+      <c r="C17">
+        <v>12.208745070000001</v>
+      </c>
+      <c r="D17">
+        <v>0.32895438700000001</v>
+      </c>
+      <c r="E17">
+        <v>1.3997281150000001</v>
+      </c>
+      <c r="F17">
+        <v>324.47094049999998</v>
+      </c>
+      <c r="G17">
+        <v>1.5389857E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>38.83793103</v>
+      </c>
+      <c r="B18">
+        <v>5.4447866999999997E-2</v>
+      </c>
+      <c r="C18">
+        <v>12.775907800000001</v>
+      </c>
+      <c r="D18">
+        <v>0.32895438700000001</v>
+      </c>
+      <c r="E18">
+        <v>1.3997281150000001</v>
+      </c>
+      <c r="F18">
+        <v>324.47094049999998</v>
+      </c>
+      <c r="G18">
+        <v>1.6478732999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>40.562068969999999</v>
+      </c>
+      <c r="B19">
+        <v>5.6864979000000003E-2</v>
+      </c>
+      <c r="C19">
+        <v>13.343070539999999</v>
+      </c>
+      <c r="D19">
+        <v>0.32895438700000001</v>
+      </c>
+      <c r="E19">
+        <v>1.3997281150000001</v>
+      </c>
+      <c r="F19">
+        <v>324.47094049999998</v>
+      </c>
+      <c r="G19">
+        <v>1.7567609000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>42.286206900000003</v>
+      </c>
+      <c r="B20">
+        <v>5.9282091000000002E-2</v>
+      </c>
+      <c r="C20">
+        <v>13.91023328</v>
+      </c>
+      <c r="D20">
+        <v>0.32895438700000001</v>
+      </c>
+      <c r="E20">
+        <v>1.3997281150000001</v>
+      </c>
+      <c r="F20">
+        <v>324.47094049999998</v>
+      </c>
+      <c r="G20">
+        <v>1.8656484000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>44.010344830000001</v>
+      </c>
+      <c r="B21">
+        <v>6.1699203000000001E-2</v>
+      </c>
+      <c r="C21">
+        <v>14.47739601</v>
+      </c>
+      <c r="D21">
+        <v>0.32895438700000001</v>
+      </c>
+      <c r="E21">
+        <v>1.3997281150000001</v>
+      </c>
+      <c r="F21">
+        <v>324.47094049999998</v>
+      </c>
+      <c r="G21">
+        <v>1.974536E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>44.687046510000002</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2">
+        <v>14.7</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.32895438700000001</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1.3997281150000001</v>
+      </c>
+      <c r="F22" s="2">
+        <v>324.47094049999998</v>
+      </c>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>45.734482759999999</v>
+      </c>
+      <c r="B23">
+        <v>6.4116316000000007E-2</v>
+      </c>
+      <c r="C23">
+        <v>15.04455875</v>
+      </c>
+      <c r="D23">
+        <v>0.32895438700000001</v>
+      </c>
+      <c r="E23">
+        <v>1.3997281150000001</v>
+      </c>
+      <c r="F23">
+        <v>324.47094049999998</v>
+      </c>
+      <c r="G23">
+        <v>2.0834235999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>47.458620689999997</v>
+      </c>
+      <c r="B24">
+        <v>6.6533428000000006E-2</v>
+      </c>
+      <c r="C24">
+        <v>15.611721490000001</v>
+      </c>
+      <c r="D24">
+        <v>0.32895438700000001</v>
+      </c>
+      <c r="E24">
+        <v>1.3997281150000001</v>
+      </c>
+      <c r="F24">
+        <v>324.47094049999998</v>
+      </c>
+      <c r="G24">
+        <v>2.1923110999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>49.182758620000001</v>
+      </c>
+      <c r="B25">
+        <v>6.8950540000000005E-2</v>
+      </c>
+      <c r="C25">
+        <v>16.17888422</v>
+      </c>
+      <c r="D25">
+        <v>0.32895438700000001</v>
+      </c>
+      <c r="E25">
+        <v>1.3997281150000001</v>
+      </c>
+      <c r="F25">
+        <v>324.47094049999998</v>
+      </c>
+      <c r="G25">
+        <v>2.3011987000000001E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>50.906896549999999</v>
+      </c>
+      <c r="B26">
+        <v>7.1367652000000004E-2</v>
+      </c>
+      <c r="C26">
+        <v>16.746046960000001</v>
+      </c>
+      <c r="D26">
+        <v>0.32895438700000001</v>
+      </c>
+      <c r="E26">
+        <v>1.3997281150000001</v>
+      </c>
+      <c r="F26">
+        <v>324.47094049999998</v>
+      </c>
+      <c r="G26">
+        <v>2.4100863E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>52.631034479999997</v>
+      </c>
+      <c r="B27">
+        <v>7.3784764000000003E-2</v>
+      </c>
+      <c r="C27">
+        <v>17.313209700000002</v>
+      </c>
+      <c r="D27">
+        <v>0.32895438700000001</v>
+      </c>
+      <c r="E27">
+        <v>1.3997281150000001</v>
+      </c>
+      <c r="F27">
+        <v>324.47094049999998</v>
+      </c>
+      <c r="G27">
+        <v>2.5189738E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>54.355172410000002</v>
+      </c>
+      <c r="B28">
+        <v>7.6201876000000002E-2</v>
+      </c>
+      <c r="C28">
+        <v>17.880372430000001</v>
+      </c>
+      <c r="D28">
+        <v>0.32895438700000001</v>
+      </c>
+      <c r="E28">
+        <v>1.3997281150000001</v>
+      </c>
+      <c r="F28">
+        <v>324.47094049999998</v>
+      </c>
+      <c r="G28">
+        <v>2.6278613999999999E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>56.079310339999999</v>
+      </c>
+      <c r="B29">
+        <v>7.8618988000000001E-2</v>
+      </c>
+      <c r="C29">
+        <v>18.447535169999998</v>
+      </c>
+      <c r="D29">
+        <v>0.32895438700000001</v>
+      </c>
+      <c r="E29">
+        <v>1.3997281150000001</v>
+      </c>
+      <c r="F29">
+        <v>324.47094049999998</v>
+      </c>
+      <c r="G29">
+        <v>2.7367490000000001E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>57.803448279999998</v>
+      </c>
+      <c r="B30">
+        <v>8.10361E-2</v>
+      </c>
+      <c r="C30">
+        <v>19.014697909999999</v>
+      </c>
+      <c r="D30">
+        <v>0.32895438700000001</v>
+      </c>
+      <c r="E30">
+        <v>1.3997281150000001</v>
+      </c>
+      <c r="F30">
+        <v>324.47094049999998</v>
+      </c>
+      <c r="G30">
+        <v>2.8456365000000001E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>59.527586210000003</v>
+      </c>
+      <c r="B31">
+        <v>8.3453211999999999E-2</v>
+      </c>
+      <c r="C31">
+        <v>19.581860639999999</v>
+      </c>
+      <c r="D31">
+        <v>0.32895438700000001</v>
+      </c>
+      <c r="E31">
+        <v>1.3997281150000001</v>
+      </c>
+      <c r="F31">
+        <v>324.47094049999998</v>
+      </c>
+      <c r="G31">
+        <v>2.9545241E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>61.25172414</v>
+      </c>
+      <c r="B32">
+        <v>8.5870323999999998E-2</v>
+      </c>
+      <c r="C32">
+        <v>20.149023379999999</v>
+      </c>
+      <c r="D32">
+        <v>0.32895438700000001</v>
+      </c>
+      <c r="E32">
+        <v>1.3997281150000001</v>
+      </c>
+      <c r="F32">
+        <v>324.47094049999998</v>
+      </c>
+      <c r="G32">
+        <v>3.0634116999999999E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>62.975862069999998</v>
+      </c>
+      <c r="B33">
+        <v>8.8287435999999997E-2</v>
+      </c>
+      <c r="C33">
+        <v>20.71618612</v>
+      </c>
+      <c r="D33">
+        <v>0.32895438700000001</v>
+      </c>
+      <c r="E33">
+        <v>1.3997281150000001</v>
+      </c>
+      <c r="F33">
+        <v>324.47094049999998</v>
+      </c>
+      <c r="G33">
+        <v>3.1722992999999998E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>64.7</v>
       </c>
-      <c r="C2" s="5">
-        <v>35.438944110000001</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5">
+      <c r="B34">
+        <v>9.0704548999999995E-2</v>
+      </c>
+      <c r="C34">
         <v>21.283348849999999</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5">
-        <v>0.47613755800000002</v>
-      </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5">
-        <v>1.3997281150000001</v>
-      </c>
-      <c r="J2" s="5">
-        <v>64.7</v>
-      </c>
-      <c r="L2">
-        <v>1.2889999999999999</v>
-      </c>
-      <c r="M2">
-        <v>0.54772350199999997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5">
-        <v>62.975862069999998</v>
-      </c>
-      <c r="C3" s="5">
-        <v>34.494560370000002</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5">
-        <v>20.71618612</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5">
-        <v>0.46344935399999998</v>
-      </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5">
-        <v>1.3997281150000001</v>
-      </c>
-      <c r="J3" s="5">
-        <v>62.975862069999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5">
-        <v>61.25172414</v>
-      </c>
-      <c r="C4" s="5">
-        <v>33.550176630000003</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5">
-        <v>20.149023379999999</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5">
-        <v>0.45076114900000003</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5">
-        <v>1.3997281150000001</v>
-      </c>
-      <c r="J4" s="5">
-        <v>61.25172414</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5">
-        <v>59.527586210000003</v>
-      </c>
-      <c r="C5" s="5">
-        <v>32.605792899999997</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5">
-        <v>19.581860639999999</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5">
-        <v>0.43807294499999999</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5">
-        <v>1.3997281150000001</v>
-      </c>
-      <c r="J5" s="5">
-        <v>59.527586210000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5">
-        <v>57.803448279999998</v>
-      </c>
-      <c r="C6" s="5">
-        <v>31.661409160000002</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5">
-        <v>19.014697909999999</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5">
-        <v>0.42538474100000001</v>
-      </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5">
-        <v>1.3997281150000001</v>
-      </c>
-      <c r="J6" s="5">
-        <v>57.803448279999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5">
-        <v>56.079310339999999</v>
-      </c>
-      <c r="C7" s="5">
-        <v>30.717025419999999</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5">
-        <v>18.447535169999998</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5">
-        <v>0.412696536</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5">
-        <v>1.3997281150000001</v>
-      </c>
-      <c r="J7" s="5">
-        <v>56.079310339999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5">
-        <v>54.355172410000002</v>
-      </c>
-      <c r="C8" s="5">
-        <v>29.77264169</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5">
-        <v>17.880372430000001</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5">
-        <v>0.40000833200000002</v>
-      </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5">
-        <v>1.3997281150000001</v>
-      </c>
-      <c r="J8" s="5">
-        <v>54.355172410000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5">
-        <v>52.631034479999997</v>
-      </c>
-      <c r="C9" s="5">
-        <v>28.828257950000001</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5">
-        <v>17.313209700000002</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5">
-        <v>0.38732012700000001</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5">
-        <v>1.3997281150000001</v>
-      </c>
-      <c r="J9" s="5">
-        <v>52.631034479999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5">
-        <v>50.906896549999999</v>
-      </c>
-      <c r="C10" s="5">
-        <v>27.883874209999998</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5">
-        <v>16.746046960000001</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5">
-        <v>0.37463192299999998</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5">
-        <v>1.3997281150000001</v>
-      </c>
-      <c r="J10" s="5">
-        <v>50.906896549999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5">
-        <v>49.182758620000001</v>
-      </c>
-      <c r="C11" s="5">
-        <v>26.93949048</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5">
-        <v>16.17888422</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5">
-        <v>0.361943719</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5">
-        <v>1.3997281150000001</v>
-      </c>
-      <c r="J11" s="5">
-        <v>49.182758620000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5">
-        <v>47.458620689999997</v>
-      </c>
-      <c r="C12" s="5">
-        <v>25.995106740000001</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5">
-        <v>15.611721490000001</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5">
-        <v>0.34925551399999999</v>
-      </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5">
-        <v>1.3997281150000001</v>
-      </c>
-      <c r="J12" s="5">
-        <v>47.458620689999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5">
-        <v>45.734482759999999</v>
-      </c>
-      <c r="C13" s="5">
-        <v>25.050723000000001</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5">
-        <v>15.04455875</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5">
-        <v>0.33656731000000001</v>
-      </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5">
-        <v>1.3997281150000001</v>
-      </c>
-      <c r="J13" s="5">
-        <v>45.734482759999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5">
-        <v>44.687046510000002</v>
-      </c>
-      <c r="C14" s="5">
-        <v>24.476997579999999</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5">
-        <v>14.7</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5">
-        <v>0.32895438700000001</v>
-      </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5">
-        <v>1.3997281150000001</v>
-      </c>
-      <c r="J14" s="5">
-        <v>44.687046510000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15">
-        <v>44.010344830000001</v>
-      </c>
-      <c r="C15">
-        <v>24.106339269999999</v>
-      </c>
-      <c r="D15">
-        <v>14.7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16">
-        <v>42.286206900000003</v>
-      </c>
-      <c r="C16">
-        <v>23.16195553</v>
-      </c>
-      <c r="D16">
-        <v>14.7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17">
-        <v>40.562068969999999</v>
-      </c>
-      <c r="C17">
-        <v>22.217571790000001</v>
-      </c>
-      <c r="D17">
-        <v>14.7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18">
-        <v>38.83793103</v>
-      </c>
-      <c r="C18">
-        <v>21.273188059999999</v>
-      </c>
-      <c r="D18">
-        <v>14.7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19">
-        <v>37.113793100000002</v>
-      </c>
-      <c r="C19">
-        <v>20.32880432</v>
-      </c>
-      <c r="D19">
-        <v>14.7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20">
-        <v>35.389655169999997</v>
-      </c>
-      <c r="C20">
-        <v>19.38442058</v>
-      </c>
-      <c r="D20">
-        <v>14.7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21">
-        <v>33.66551724</v>
-      </c>
-      <c r="C21">
-        <v>18.440036849999998</v>
-      </c>
-      <c r="D21">
-        <v>14.7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22">
-        <v>31.941379309999999</v>
-      </c>
-      <c r="C22">
-        <v>17.495653109999999</v>
-      </c>
-      <c r="D22">
-        <v>14.7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23">
-        <v>30.217241380000001</v>
-      </c>
-      <c r="C23">
-        <v>16.55126937</v>
-      </c>
-      <c r="D23">
-        <v>14.7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24">
-        <v>28.49310345</v>
-      </c>
-      <c r="C24">
-        <v>15.606885630000001</v>
-      </c>
-      <c r="D24">
-        <v>14.7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25">
-        <v>26.83742487</v>
-      </c>
-      <c r="C25">
-        <v>14.7</v>
-      </c>
-      <c r="D25">
-        <v>14.7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26">
-        <v>26.768965519999998</v>
-      </c>
-      <c r="C26">
-        <v>14.662501900000001</v>
-      </c>
-      <c r="D26">
-        <v>14.7</v>
-      </c>
-      <c r="F26">
-        <v>0.54914337199999996</v>
-      </c>
-      <c r="H26">
-        <v>0.472413311</v>
-      </c>
-      <c r="J26">
-        <v>26.768965519999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27">
-        <v>25.044827590000001</v>
-      </c>
-      <c r="C27">
-        <v>13.71811816</v>
-      </c>
-      <c r="D27">
-        <v>14.7</v>
-      </c>
-      <c r="F27">
-        <v>0.58694754199999999</v>
-      </c>
-      <c r="H27">
-        <v>0.44371139700000001</v>
-      </c>
-      <c r="J27">
-        <v>25.044827590000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28">
-        <v>23.320689659999999</v>
-      </c>
-      <c r="C28">
-        <v>12.77373442</v>
-      </c>
-      <c r="D28">
-        <v>14.7</v>
-      </c>
-      <c r="F28">
-        <v>0.63034156399999997</v>
-      </c>
-      <c r="H28">
-        <v>0.41126772900000003</v>
-      </c>
-      <c r="J28">
-        <v>23.320689659999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29">
-        <v>21.596551720000001</v>
-      </c>
-      <c r="C29">
-        <v>11.82935069</v>
-      </c>
-      <c r="D29">
-        <v>14.7</v>
-      </c>
-      <c r="F29">
-        <v>0.68066421799999999</v>
-      </c>
-      <c r="H29">
-        <v>0.373848719</v>
-      </c>
-      <c r="J29">
-        <v>21.596551720000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30">
-        <v>19.87241379</v>
-      </c>
-      <c r="C30">
-        <v>10.884966950000001</v>
-      </c>
-      <c r="D30">
-        <v>14.7</v>
-      </c>
-      <c r="F30">
-        <v>0.73971889599999996</v>
-      </c>
-      <c r="H30">
-        <v>0.32940045000000001</v>
-      </c>
-      <c r="J30">
-        <v>19.87241379</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31">
-        <v>18.148275859999998</v>
-      </c>
-      <c r="C31">
-        <v>9.9405832140000001</v>
-      </c>
-      <c r="D31">
-        <v>14.7</v>
-      </c>
-      <c r="F31">
-        <v>0.80999429999999994</v>
-      </c>
-      <c r="H31">
-        <v>0.27398203500000001</v>
-      </c>
-      <c r="J31">
-        <v>18.148275859999998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32">
-        <v>16.424137930000001</v>
-      </c>
-      <c r="C32">
-        <v>8.9961994769999993</v>
-      </c>
-      <c r="D32">
-        <v>14.7</v>
-      </c>
-      <c r="F32">
-        <v>0.89502414399999997</v>
-      </c>
-      <c r="H32">
-        <v>0.19764738100000001</v>
-      </c>
-      <c r="J32">
-        <v>16.424137930000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33">
-        <v>14.7</v>
-      </c>
-      <c r="C33">
-        <v>8.0518157400000003</v>
-      </c>
-      <c r="D33">
-        <v>14.7</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>14.7</v>
+      <c r="D34">
+        <v>0.32895438700000001</v>
+      </c>
+      <c r="E34">
+        <v>1.3997281150000001</v>
+      </c>
+      <c r="F34">
+        <v>324.47094049999998</v>
+      </c>
+      <c r="G34">
+        <v>3.2811868000000001E-2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:A14"/>
-    <mergeCell ref="A15:A25"/>
-    <mergeCell ref="A26:A33"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
